--- a/企画骨子.xlsx
+++ b/企画骨子.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hidetakayamamoto/Desktop/Gs/03_課題/JS_championship_hidetaka_y/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE51C63-DE41-D942-81EC-044FFAB278BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D69174-3F56-A349-B6DC-5DAE570103AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="22100" windowWidth="20480" windowHeight="13960" activeTab="1" xr2:uid="{0CA47A85-0901-5041-AA12-1D2C0EE4F736}"/>
+    <workbookView xWindow="3280" yWindow="1340" windowWidth="33860" windowHeight="18680" activeTab="1" xr2:uid="{0CA47A85-0901-5041-AA12-1D2C0EE4F736}"/>
   </bookViews>
   <sheets>
     <sheet name="①概要整理＆②企画骨子" sheetId="1" r:id="rId1"/>
@@ -1987,7 +1987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5429C8-75DB-8A4D-B05B-88ED9C1ECD85}">
   <dimension ref="B2:L46"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
@@ -2277,10 +2277,10 @@
   <dimension ref="B1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G12" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="20" x14ac:dyDescent="0.35"/>
@@ -2309,7 +2309,7 @@
       <c r="C4" s="46"/>
       <c r="D4" s="47">
         <f ca="1">TODAY()</f>
-        <v>45060</v>
+        <v>45063</v>
       </c>
       <c r="E4" s="48" t="s">
         <v>48</v>
